--- a/biology/Mycologie/Colletotrichum_coccodes/Colletotrichum_coccodes.xlsx
+++ b/biology/Mycologie/Colletotrichum_coccodes/Colletotrichum_coccodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colletotrichum coccodes est une espèce de champignons ascomycètes de la famille  des Glomerellaceae, à répartition cosmopolite. Cet organisme phytopathogène est un des agents de l'anthracnose du houblon et de la tomate ainsi que de la dartrose de la pomme de terre.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractérisation de l'espèce</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les colonies de ce champignon sont de couleur sombre avec un mycelium aérien bianc. Elles sont composées d'abondants sclérotes noirs, sphériques et soyeux et de masses de conidies fusiformes, atténuées à l'apex, 16-22 x 3-4 μm, de couleur marron clair. Les appressoria sont fréquents, claviformes ou de forme variable , de couleur marron, 11-16,5 x 6-9,5 μm.
 </t>
@@ -542,7 +556,9 @@
           <t>Survie et propagation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le champignon survit dans les débris de récolte. La maladie est favorisée par des températures élevées et une humidité atmosphérique suffisante.
 </t>
@@ -573,9 +589,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (16 août 2015)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (16 août 2015) :
 Colletotrichum agaves Cavara, (1892)
 Colletotrichum antirrhini F.C. Stewart, (1900)
 Colletotrichum atramentarium (Berk. &amp; Broome) Taubenh., (1916)
